--- a/database/PigData.xlsx
+++ b/database/PigData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\workstation\database\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="PigPrice" sheetId="1" r:id="rId1"/>
@@ -31,6 +26,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -40,6 +36,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -65,6 +62,7 @@
           <rPr>
             <b/>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -74,6 +72,7 @@
         <r>
           <rPr>
             <sz val="9"/>
+            <color indexed="81"/>
             <rFont val="宋体"/>
             <family val="3"/>
             <charset val="134"/>
@@ -88,30 +87,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>date</t>
+    <t>生猪存栏-环比上月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>生猪存栏-同比去年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能繁母猪存栏-环比上月</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>能繁母猪存栏-同比去年</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>仔猪价格（元/公斤）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>16省白条猪出厂价（元/公斤）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>宰后均重（公斤）</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生猪存栏-环比上月</t>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>生猪存栏-同比去年</t>
-  </si>
-  <si>
-    <t>能繁母猪存栏-环比上月</t>
-  </si>
-  <si>
-    <t>能繁母猪存栏-同比去年</t>
+    <t>date</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -119,35 +130,21 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -156,6 +153,21 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -177,13 +189,13 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -248,7 +260,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -283,7 +295,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -495,30 +507,30 @@
   <dimension ref="A1:D164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C91" sqref="C91"/>
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H90" sqref="H90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.625" customWidth="1"/>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
-    <col min="3" max="3" width="14.125" customWidth="1"/>
-    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" customWidth="1"/>
+    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -1586,7 +1598,18 @@
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A90" s="4"/>
+      <c r="A90" s="4">
+        <v>43607</v>
+      </c>
+      <c r="B90">
+        <v>38.36</v>
+      </c>
+      <c r="C90">
+        <v>20.14</v>
+      </c>
+      <c r="D90">
+        <v>84.98</v>
+      </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="4"/>
@@ -1811,7 +1834,7 @@
       <c r="A164" s="4"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
@@ -1825,28 +1848,28 @@
       <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.375" style="2" customWidth="1"/>
-    <col min="4" max="5" width="22.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="22.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
@@ -2253,9 +2276,9 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/database/PigData.xlsx
+++ b/database/PigData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="24345" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="PigPrice" sheetId="1" r:id="rId1"/>
     <sheet name="livestock" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -20,15 +20,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B40" authorId="0" shapeId="0">
+    <comment ref="B40" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -36,9 +34,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -56,15 +52,13 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0" shapeId="0">
+    <comment ref="B9" authorId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -72,9 +66,7 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -87,98 +79,402 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>仔猪价格（元/公斤）</t>
+  </si>
+  <si>
+    <t>16省白条猪出厂价（元/公斤）</t>
+  </si>
+  <si>
+    <t>宰后均重（公斤）</t>
+  </si>
   <si>
     <t>生猪存栏-环比上月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>生猪存栏-同比去年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>能繁母猪存栏-环比上月</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>能繁母猪存栏-同比去年</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>仔猪价格（元/公斤）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>16省白条猪出厂价（元/公斤）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>宰后均重（公斤）</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>date</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color indexed="81"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -186,10 +482,249 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -197,21 +732,64 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -260,7 +838,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -295,7 +873,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -498,50 +1076,51 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D164"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H90" sqref="H90"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
-    <col min="4" max="4" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="4">
         <v>42963</v>
       </c>
       <c r="B2">
-        <v>34.909999999999997</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+        <v>34.91</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="4">
         <v>42970</v>
       </c>
@@ -549,7 +1128,7 @@
         <v>34.78</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2">
       <c r="A4" s="4">
         <v>42977</v>
       </c>
@@ -557,7 +1136,7 @@
         <v>34.76</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:2">
       <c r="A5" s="4">
         <v>42984</v>
       </c>
@@ -565,15 +1144,15 @@
         <v>34.68</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:2">
       <c r="A6" s="4">
         <v>42991</v>
       </c>
       <c r="B6">
-        <v>34.450000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+        <v>34.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" s="4">
         <v>42998</v>
       </c>
@@ -581,23 +1160,23 @@
         <v>34.11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:2">
       <c r="A8" s="4">
         <v>43005</v>
       </c>
       <c r="B8">
-        <v>33.729999999999997</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
+        <v>33.73</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" s="4">
         <v>43017</v>
       </c>
       <c r="B9">
-        <v>33.299999999999997</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+        <v>33.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" s="4">
         <v>43019</v>
       </c>
@@ -605,7 +1184,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:2">
       <c r="A11" s="4">
         <v>43026</v>
       </c>
@@ -613,7 +1192,7 @@
         <v>32.47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:2">
       <c r="A12" s="4">
         <v>43033</v>
       </c>
@@ -621,7 +1200,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:2">
       <c r="A13" s="4">
         <v>43040</v>
       </c>
@@ -629,7 +1208,7 @@
         <v>31.55</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:2">
       <c r="A14" s="4">
         <v>43047</v>
       </c>
@@ -637,7 +1216,7 @@
         <v>31.13</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:2">
       <c r="A15" s="4">
         <v>43054</v>
       </c>
@@ -645,7 +1224,7 @@
         <v>30.55</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:2">
       <c r="A16" s="4">
         <v>43061</v>
       </c>
@@ -653,7 +1232,7 @@
         <v>30.58</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:2">
       <c r="A17" s="4">
         <v>43096</v>
       </c>
@@ -661,7 +1240,7 @@
         <v>30.55</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:2">
       <c r="A18" s="4">
         <v>43103</v>
       </c>
@@ -669,7 +1248,7 @@
         <v>30.54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:2">
       <c r="A19" s="4">
         <v>43110</v>
       </c>
@@ -677,12 +1256,12 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:1">
       <c r="A20" s="4">
         <v>43117</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:2">
       <c r="A21" s="4">
         <v>43124</v>
       </c>
@@ -690,7 +1269,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:4">
       <c r="A22" s="4">
         <v>43131</v>
       </c>
@@ -704,7 +1283,7 @@
         <v>84.13</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:4">
       <c r="A23" s="4">
         <v>43138</v>
       </c>
@@ -712,18 +1291,18 @@
         <v>30.22</v>
       </c>
       <c r="C23">
-        <v>18.690000000000001</v>
+        <v>18.69</v>
       </c>
       <c r="D23">
         <v>84.13</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:1">
       <c r="A24" s="4">
         <v>43145</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3">
       <c r="A25" s="4">
         <v>43152</v>
       </c>
@@ -731,10 +1310,10 @@
         <v>29.87</v>
       </c>
       <c r="C25">
-        <v>18.170000000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
+        <v>18.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="4">
         <v>43159</v>
       </c>
@@ -748,7 +1327,7 @@
         <v>83.43</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:4">
       <c r="A27" s="4">
         <v>43166</v>
       </c>
@@ -759,7 +1338,7 @@
         <v>83.56</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:4">
       <c r="A28" s="4">
         <v>43173</v>
       </c>
@@ -773,7 +1352,7 @@
         <v>83.72</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:4">
       <c r="A29" s="4">
         <v>43180</v>
       </c>
@@ -787,7 +1366,7 @@
         <v>83.93</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:4">
       <c r="A30" s="4">
         <v>43187</v>
       </c>
@@ -801,7 +1380,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:4">
       <c r="A31" s="4">
         <v>43194</v>
       </c>
@@ -815,7 +1394,7 @@
         <v>84.05</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:4">
       <c r="A32" s="4">
         <v>43201</v>
       </c>
@@ -829,7 +1408,7 @@
         <v>84.11</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:4">
       <c r="A33" s="4">
         <v>43208</v>
       </c>
@@ -843,7 +1422,7 @@
         <v>84.17</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:4">
       <c r="A34" s="4">
         <v>43215</v>
       </c>
@@ -857,7 +1436,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:4">
       <c r="A35" s="4">
         <v>43222</v>
       </c>
@@ -871,7 +1450,7 @@
         <v>84.13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:4">
       <c r="A36" s="4">
         <v>43229</v>
       </c>
@@ -885,7 +1464,7 @@
         <v>84.13</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:4">
       <c r="A37" s="4">
         <v>43236</v>
       </c>
@@ -899,7 +1478,7 @@
         <v>84.01</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:4">
       <c r="A38" s="4">
         <v>43243</v>
       </c>
@@ -913,7 +1492,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:4">
       <c r="A39" s="4">
         <v>43250</v>
       </c>
@@ -927,7 +1506,7 @@
         <v>83.57</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:4">
       <c r="A40" s="4">
         <v>43257</v>
       </c>
@@ -941,7 +1520,7 @@
         <v>83.43</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:4">
       <c r="A41" s="4">
         <v>43264</v>
       </c>
@@ -955,7 +1534,7 @@
         <v>83.27</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:4">
       <c r="A42" s="4">
         <v>43271</v>
       </c>
@@ -969,7 +1548,7 @@
         <v>83.19</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:4">
       <c r="A43" s="4">
         <v>43278</v>
       </c>
@@ -983,7 +1562,7 @@
         <v>83.16</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:4">
       <c r="A44" s="4">
         <v>43285</v>
       </c>
@@ -997,7 +1576,7 @@
         <v>83.05</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:4">
       <c r="A45" s="4">
         <v>43292</v>
       </c>
@@ -1005,13 +1584,13 @@
         <v>24.26</v>
       </c>
       <c r="C45">
-        <v>17.239999999999998</v>
+        <v>17.24</v>
       </c>
       <c r="D45">
         <v>83.32</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:4">
       <c r="A46" s="4">
         <v>43299</v>
       </c>
@@ -1025,7 +1604,7 @@
         <v>83.26</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:4">
       <c r="A47" s="4">
         <v>43306</v>
       </c>
@@ -1039,7 +1618,7 @@
         <v>83.17</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:4">
       <c r="A48" s="4">
         <v>43313</v>
       </c>
@@ -1053,7 +1632,7 @@
         <v>83.09</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:4">
       <c r="A49" s="4">
         <v>43320</v>
       </c>
@@ -1067,7 +1646,7 @@
         <v>82.98</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:4">
       <c r="A50" s="4">
         <v>43327</v>
       </c>
@@ -1081,7 +1660,7 @@
         <v>82.78</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:4">
       <c r="A51" s="4">
         <v>43334</v>
       </c>
@@ -1092,7 +1671,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:4">
       <c r="A52" s="4">
         <v>43341</v>
       </c>
@@ -1106,7 +1685,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:4">
       <c r="A53" s="4">
         <v>43348</v>
       </c>
@@ -1114,13 +1693,13 @@
         <v>25.74</v>
       </c>
       <c r="C53">
-        <v>19.059999999999999</v>
+        <v>19.06</v>
       </c>
       <c r="D53">
         <v>82.34</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:4">
       <c r="A54" s="4">
         <v>43355</v>
       </c>
@@ -1134,7 +1713,7 @@
         <v>82.05</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:4">
       <c r="A55" s="4">
         <v>43362</v>
       </c>
@@ -1145,21 +1724,21 @@
         <v>19.38</v>
       </c>
       <c r="D55">
-        <v>81.739999999999995</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
+        <v>81.74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="4">
         <v>43369</v>
       </c>
       <c r="C56">
-        <v>19.309999999999999</v>
+        <v>19.31</v>
       </c>
       <c r="D56">
         <v>81.83</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:2">
       <c r="A57" s="4">
         <v>43376</v>
       </c>
@@ -1167,7 +1746,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:4">
       <c r="A58" s="4">
         <v>43383</v>
       </c>
@@ -1175,13 +1754,13 @@
         <v>25.06</v>
       </c>
       <c r="C58">
-        <v>19.170000000000002</v>
+        <v>19.17</v>
       </c>
       <c r="D58">
-        <v>80.650000000000006</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
+        <v>80.65</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="4">
         <v>43390</v>
       </c>
@@ -1195,7 +1774,7 @@
         <v>82.54</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:4">
       <c r="A60" s="4">
         <v>43397</v>
       </c>
@@ -1209,7 +1788,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:4">
       <c r="A61" s="4">
         <v>43404</v>
       </c>
@@ -1223,7 +1802,7 @@
         <v>83.75</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:4">
       <c r="A62" s="4">
         <v>43411</v>
       </c>
@@ -1231,13 +1810,13 @@
         <v>23.83</v>
       </c>
       <c r="C62">
-        <v>18.239999999999998</v>
+        <v>18.24</v>
       </c>
       <c r="D62">
         <v>83.93</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:4">
       <c r="A63" s="4">
         <v>43418</v>
       </c>
@@ -1251,7 +1830,7 @@
         <v>84.37</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:4">
       <c r="A64" s="4">
         <v>43425</v>
       </c>
@@ -1265,7 +1844,7 @@
         <v>84.38</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:3">
       <c r="A65" s="4">
         <v>43432</v>
       </c>
@@ -1276,7 +1855,7 @@
         <v>17.63</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:4">
       <c r="A66" s="4">
         <v>43439</v>
       </c>
@@ -1284,13 +1863,13 @@
         <v>22.8</v>
       </c>
       <c r="C66">
-        <v>18.010000000000002</v>
+        <v>18.01</v>
       </c>
       <c r="D66">
         <v>84.85</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:4">
       <c r="A67" s="4">
         <v>43446</v>
       </c>
@@ -1304,7 +1883,7 @@
         <v>85.05</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:4">
       <c r="A68" s="4">
         <v>43453</v>
       </c>
@@ -1318,7 +1897,7 @@
         <v>85.12</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:4">
       <c r="A69" s="4">
         <v>43460</v>
       </c>
@@ -1332,7 +1911,7 @@
         <v>85.18</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:4">
       <c r="A70" s="4">
         <v>43467</v>
       </c>
@@ -1340,13 +1919,13 @@
         <v>22.44</v>
       </c>
       <c r="C70">
-        <v>17.579999999999998</v>
+        <v>17.58</v>
       </c>
       <c r="D70">
         <v>84.98</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:4">
       <c r="A71" s="4">
         <v>43474</v>
       </c>
@@ -1354,13 +1933,13 @@
         <v>22.22</v>
       </c>
       <c r="C71">
-        <v>17.010000000000002</v>
+        <v>17.01</v>
       </c>
       <c r="D71">
         <v>84.89</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:4">
       <c r="A72" s="4">
         <v>43481</v>
       </c>
@@ -1374,7 +1953,7 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:4">
       <c r="A73" s="4">
         <v>43488</v>
       </c>
@@ -1388,7 +1967,7 @@
         <v>84.18</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:4">
       <c r="A74" s="4">
         <v>43495</v>
       </c>
@@ -1399,7 +1978,7 @@
         <v>83.79</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:2">
       <c r="A75" s="4">
         <v>43502</v>
       </c>
@@ -1407,7 +1986,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:4">
       <c r="A76" s="4">
         <v>43509</v>
       </c>
@@ -1421,7 +2000,7 @@
         <v>83.19</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:2">
       <c r="A77" s="4">
         <v>43516</v>
       </c>
@@ -1429,7 +2008,7 @@
         <v>23.57</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:4">
       <c r="A78" s="4">
         <v>43523</v>
       </c>
@@ -1443,7 +2022,7 @@
         <v>83.04</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:4">
       <c r="A79" s="4">
         <v>43530</v>
       </c>
@@ -1457,7 +2036,7 @@
         <v>83.14</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:4">
       <c r="A80" s="4">
         <v>43537</v>
       </c>
@@ -1471,7 +2050,7 @@
         <v>83.38</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:4">
       <c r="A81" s="4">
         <v>43544</v>
       </c>
@@ -1485,12 +2064,12 @@
         <v>83.59</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:4">
       <c r="A82" s="4">
         <v>43551</v>
       </c>
       <c r="B82">
-        <v>34.159999999999997</v>
+        <v>34.16</v>
       </c>
       <c r="C82">
         <v>20.32</v>
@@ -1499,7 +2078,7 @@
         <v>84.12</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:4">
       <c r="A83" s="4">
         <v>43558</v>
       </c>
@@ -1507,18 +2086,18 @@
         <v>35.61</v>
       </c>
       <c r="C83">
-        <v>20.399999999999999</v>
+        <v>20.4</v>
       </c>
       <c r="D83">
         <v>84.24</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:4">
       <c r="A84" s="4">
         <v>43565</v>
       </c>
       <c r="B84">
-        <v>36.340000000000003</v>
+        <v>36.34</v>
       </c>
       <c r="C84">
         <v>20.28</v>
@@ -1527,7 +2106,7 @@
         <v>84.34</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:4">
       <c r="A85" s="4">
         <v>43572</v>
       </c>
@@ -1535,13 +2114,13 @@
         <v>36.69</v>
       </c>
       <c r="C85">
-        <v>19.850000000000001</v>
+        <v>19.85</v>
       </c>
       <c r="D85">
         <v>84.4</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:4">
       <c r="A86" s="4">
         <v>43579</v>
       </c>
@@ -1549,13 +2128,13 @@
         <v>37.17</v>
       </c>
       <c r="C86">
-        <v>20.190000000000001</v>
+        <v>20.19</v>
       </c>
       <c r="D86">
         <v>84.47</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:4">
       <c r="A87" s="4">
         <v>43585</v>
       </c>
@@ -1569,7 +2148,7 @@
         <v>84.51</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:4">
       <c r="A88" s="4">
         <v>43593</v>
       </c>
@@ -1583,12 +2162,12 @@
         <v>84.45</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:4">
       <c r="A89" s="4">
         <v>43600</v>
       </c>
       <c r="B89">
-        <v>38.159999999999997</v>
+        <v>38.16</v>
       </c>
       <c r="C89">
         <v>20.23</v>
@@ -1597,7 +2176,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:4">
       <c r="A90" s="4">
         <v>43607</v>
       </c>
@@ -1611,598 +2190,825 @@
         <v>84.98</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A91" s="4"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A93" s="4"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A94" s="4"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A95" s="4"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A96" s="4"/>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A97" s="4"/>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A98" s="4"/>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A99" s="4"/>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A100" s="4"/>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A101" s="4"/>
-    </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A102" s="4"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A103" s="4"/>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A104" s="4"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A105" s="4"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A106" s="4"/>
-    </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A107" s="4"/>
-    </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A108" s="4"/>
-    </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A109" s="4"/>
-    </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A110" s="4"/>
-    </row>
-    <row r="111" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A111" s="4"/>
-    </row>
-    <row r="112" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:4">
+      <c r="A91" s="4">
+        <v>43614</v>
+      </c>
+      <c r="B91">
+        <v>38.54</v>
+      </c>
+      <c r="C91">
+        <v>20.28</v>
+      </c>
+      <c r="D91">
+        <v>85.04</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="4">
+        <v>43621</v>
+      </c>
+      <c r="B92">
+        <v>38.98</v>
+      </c>
+      <c r="C92">
+        <v>21.67</v>
+      </c>
+      <c r="D92">
+        <v>85.14</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="4">
+        <v>43628</v>
+      </c>
+      <c r="B93">
+        <v>39.18</v>
+      </c>
+      <c r="C93">
+        <v>21.76</v>
+      </c>
+      <c r="D93">
+        <v>85.11</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="4">
+        <v>43635</v>
+      </c>
+      <c r="B94">
+        <v>39.92</v>
+      </c>
+      <c r="C94">
+        <v>23.86</v>
+      </c>
+      <c r="D94">
+        <v>85.23</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="4">
+        <v>43642</v>
+      </c>
+      <c r="B95">
+        <v>41.02</v>
+      </c>
+      <c r="C95">
+        <v>24.31</v>
+      </c>
+      <c r="D95">
+        <v>85.03</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="4">
+        <v>43649</v>
+      </c>
+      <c r="B96">
+        <v>41.48</v>
+      </c>
+      <c r="C96">
+        <v>24.1</v>
+      </c>
+      <c r="D96">
+        <v>84.78</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="4">
+        <v>43656</v>
+      </c>
+      <c r="B97">
+        <v>42.06</v>
+      </c>
+      <c r="C97">
+        <v>24.58</v>
+      </c>
+      <c r="D97">
+        <v>84.65</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="4">
+        <v>43663</v>
+      </c>
+      <c r="B98">
+        <v>42.78</v>
+      </c>
+      <c r="C98">
+        <v>25.55</v>
+      </c>
+      <c r="D98">
+        <v>84.56</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="4">
+        <v>43670</v>
+      </c>
+      <c r="B99">
+        <v>43.2</v>
+      </c>
+      <c r="C99">
+        <v>25.32</v>
+      </c>
+      <c r="D99">
+        <v>84.34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="4">
+        <v>43677</v>
+      </c>
+      <c r="B100">
+        <v>43.52</v>
+      </c>
+      <c r="C100">
+        <v>25.47</v>
+      </c>
+      <c r="D100">
+        <v>84.08</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="4">
+        <v>43684</v>
+      </c>
+      <c r="B101">
+        <v>44.19</v>
+      </c>
+      <c r="C101">
+        <v>27.36</v>
+      </c>
+      <c r="D101">
+        <v>83.69</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="4">
+        <v>43691</v>
+      </c>
+      <c r="B102">
+        <v>46.06</v>
+      </c>
+      <c r="C102">
+        <v>30.01</v>
+      </c>
+      <c r="D102">
+        <v>83.46</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="4">
+        <v>43698</v>
+      </c>
+      <c r="B103">
+        <v>47.95</v>
+      </c>
+      <c r="C103">
+        <v>32.59</v>
+      </c>
+      <c r="D103">
+        <v>83.41</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="4">
+        <v>43705</v>
+      </c>
+      <c r="B104">
+        <v>50.07</v>
+      </c>
+      <c r="C104">
+        <v>35.89</v>
+      </c>
+      <c r="D104">
+        <v>83.27</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="4">
+        <v>43712</v>
+      </c>
+      <c r="B105">
+        <v>52.93</v>
+      </c>
+      <c r="C105">
+        <v>35.9</v>
+      </c>
+      <c r="D105">
+        <v>83.52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="4">
+        <v>43719</v>
+      </c>
+      <c r="B106">
+        <v>55.21</v>
+      </c>
+      <c r="C106">
+        <v>37.25</v>
+      </c>
+      <c r="D106">
+        <v>83.75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="4">
+        <v>43726</v>
+      </c>
+      <c r="B107">
+        <v>56.81</v>
+      </c>
+      <c r="C107">
+        <v>37.66</v>
+      </c>
+      <c r="D107">
+        <v>83.99</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="4">
+        <v>43733</v>
+      </c>
+      <c r="B108">
+        <v>58.55</v>
+      </c>
+      <c r="C108">
+        <v>37.68</v>
+      </c>
+      <c r="D108">
+        <v>84.27</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" s="4">
+        <v>43740</v>
+      </c>
+      <c r="B109">
+        <v>59.9</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="4">
+        <v>43746</v>
+      </c>
+      <c r="C110">
+        <v>40.98</v>
+      </c>
+      <c r="D110">
+        <v>85.14</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="4">
+        <v>43754</v>
+      </c>
+      <c r="B111">
+        <v>67.57</v>
+      </c>
+      <c r="C111">
+        <v>46.43</v>
+      </c>
+      <c r="D111">
+        <v>85.71</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1">
       <c r="A112" s="4"/>
     </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:1">
       <c r="A113" s="4"/>
     </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:1">
       <c r="A114" s="4"/>
     </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:1">
       <c r="A115" s="4"/>
     </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:1">
       <c r="A116" s="4"/>
     </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:1">
       <c r="A117" s="4"/>
     </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:1">
       <c r="A118" s="4"/>
     </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:1">
       <c r="A119" s="4"/>
     </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:1">
       <c r="A120" s="4"/>
     </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:1">
       <c r="A121" s="4"/>
     </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:1">
       <c r="A122" s="4"/>
     </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:1">
       <c r="A123" s="4"/>
     </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:1">
       <c r="A124" s="4"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:1">
       <c r="A125" s="4"/>
     </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:1">
       <c r="A126" s="4"/>
     </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:1">
       <c r="A127" s="4"/>
     </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:1">
       <c r="A128" s="4"/>
     </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:1">
       <c r="A129" s="4"/>
     </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:1">
       <c r="A130" s="4"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:1">
       <c r="A131" s="4"/>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="132" spans="1:1">
       <c r="A132" s="4"/>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="133" spans="1:1">
       <c r="A133" s="4"/>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="134" spans="1:1">
       <c r="A134" s="4"/>
     </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="135" spans="1:1">
       <c r="A135" s="4"/>
     </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="136" spans="1:1">
       <c r="A136" s="4"/>
     </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="137" spans="1:1">
       <c r="A137" s="4"/>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="138" spans="1:1">
       <c r="A138" s="4"/>
     </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="139" spans="1:1">
       <c r="A139" s="4"/>
     </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="140" spans="1:1">
       <c r="A140" s="4"/>
     </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="141" spans="1:1">
       <c r="A141" s="4"/>
     </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="142" spans="1:1">
       <c r="A142" s="4"/>
     </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="143" spans="1:1">
       <c r="A143" s="4"/>
     </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="144" spans="1:1">
       <c r="A144" s="4"/>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="145" spans="1:1">
       <c r="A145" s="4"/>
     </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="146" spans="1:1">
       <c r="A146" s="4"/>
     </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="147" spans="1:1">
       <c r="A147" s="4"/>
     </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="148" spans="1:1">
       <c r="A148" s="4"/>
     </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="149" spans="1:1">
       <c r="A149" s="4"/>
     </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="150" spans="1:1">
       <c r="A150" s="4"/>
     </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="151" spans="1:1">
       <c r="A151" s="4"/>
     </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="152" spans="1:1">
       <c r="A152" s="4"/>
     </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="153" spans="1:1">
       <c r="A153" s="4"/>
     </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="154" spans="1:1">
       <c r="A154" s="4"/>
     </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="155" spans="1:1">
       <c r="A155" s="4"/>
     </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="156" spans="1:1">
       <c r="A156" s="4"/>
     </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="157" spans="1:1">
       <c r="A157" s="4"/>
     </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="158" spans="1:1">
       <c r="A158" s="4"/>
     </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="159" spans="1:1">
       <c r="A159" s="4"/>
     </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="160" spans="1:1">
       <c r="A160" s="4"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="161" spans="1:1">
       <c r="A161" s="4"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="162" spans="1:1">
       <c r="A162" s="4"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="163" spans="1:1">
       <c r="A163" s="4"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="164" spans="1:1">
       <c r="A164" s="4"/>
     </row>
+    <row r="165" spans="1:1">
+      <c r="A165" s="4"/>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="22.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.375" style="2" customWidth="1"/>
+    <col min="4" max="5" width="22.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>42887</v>
       </c>
       <c r="B2" s="3">
-        <v>-2E-3</v>
+        <v>-0.002</v>
       </c>
       <c r="C2" s="2">
-        <v>-3.2000000000000001E-2</v>
+        <v>-0.032</v>
       </c>
       <c r="D2" s="2">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="E2" s="2">
-        <v>-2.4E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>42917</v>
       </c>
       <c r="B3" s="2">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.007</v>
       </c>
       <c r="C3" s="2">
-        <v>-4.8000000000000001E-2</v>
+        <v>-0.048</v>
       </c>
       <c r="D3" s="2">
-        <v>-8.9999999999999993E-3</v>
+        <v>-0.009</v>
       </c>
       <c r="E3" s="2">
-        <v>-4.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.042</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>42948</v>
       </c>
       <c r="B4" s="2">
-        <v>-5.0000000000000001E-3</v>
+        <v>-0.005</v>
       </c>
       <c r="C4" s="2">
-        <v>-5.6000000000000001E-2</v>
+        <v>-0.056</v>
       </c>
       <c r="D4" s="2">
-        <v>-8.9999999999999993E-3</v>
+        <v>-0.009</v>
       </c>
       <c r="E4" s="2">
-        <v>-4.7E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.047</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>42979</v>
       </c>
       <c r="B5" s="2">
-        <v>-2E-3</v>
+        <v>-0.002</v>
       </c>
       <c r="C5" s="2">
-        <v>-6.0999999999999999E-2</v>
+        <v>-0.061</v>
       </c>
       <c r="D5" s="2">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.007</v>
       </c>
       <c r="E5" s="2">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:5">
       <c r="A6" s="1">
         <v>43009</v>
       </c>
       <c r="B6" s="2">
-        <v>-2E-3</v>
+        <v>-0.002</v>
       </c>
       <c r="C6" s="2">
-        <v>-6.6000000000000003E-2</v>
+        <v>-0.066</v>
       </c>
       <c r="D6" s="2">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.003</v>
       </c>
       <c r="E6" s="2">
-        <v>-5.2999999999999999E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.053</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="1">
         <v>43040</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:5">
       <c r="A8" s="1">
         <v>43070</v>
       </c>
       <c r="B8" s="2">
-        <v>-2.1000000000000001E-2</v>
+        <v>-0.021</v>
       </c>
       <c r="C8" s="2">
-        <v>-6.8000000000000005E-2</v>
+        <v>-0.068</v>
       </c>
       <c r="D8" s="2">
-        <v>-1.2E-2</v>
+        <v>-0.012</v>
       </c>
       <c r="E8" s="2">
-        <v>-6.4000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.064</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" s="1">
         <v>43101</v>
       </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>-1E-3</v>
+        <v>-0.001</v>
       </c>
       <c r="E9" s="2">
-        <v>-1.2E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.012</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" s="1">
         <v>43132</v>
       </c>
       <c r="B10" s="2">
-        <v>-8.9999999999999993E-3</v>
+        <v>-0.009</v>
       </c>
       <c r="C10" s="2">
-        <v>-8.0000000000000002E-3</v>
+        <v>-0.008</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.008</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" s="1">
         <v>43160</v>
       </c>
       <c r="B11" s="2">
-        <v>1.4E-2</v>
+        <v>0.014</v>
       </c>
       <c r="C11" s="2">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.003</v>
       </c>
       <c r="D11" s="2">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="E11" s="2">
-        <v>-8.0000000000000002E-3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.008</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="1">
         <v>43191</v>
       </c>
       <c r="B12" s="2">
-        <v>-8.0000000000000002E-3</v>
+        <v>-0.008</v>
       </c>
       <c r="C12" s="2">
-        <v>-1.4999999999999999E-2</v>
+        <v>-0.015</v>
       </c>
       <c r="D12" s="2">
-        <v>-1.4E-2</v>
+        <v>-0.014</v>
       </c>
       <c r="E12" s="2">
-        <v>-2.1000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.021</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="1">
         <v>43221</v>
       </c>
       <c r="B13" s="2">
-        <v>-1.9E-2</v>
+        <v>-0.019</v>
       </c>
       <c r="C13" s="2">
         <v>-0.02</v>
       </c>
       <c r="D13" s="2">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.025</v>
       </c>
       <c r="E13" s="2">
-        <v>-3.9E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.039</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="1">
         <v>43252</v>
       </c>
       <c r="B14" s="2">
-        <v>-1.2E-2</v>
+        <v>-0.012</v>
       </c>
       <c r="C14" s="2">
-        <v>-1.7999999999999999E-2</v>
+        <v>-0.018</v>
       </c>
       <c r="D14" s="2">
-        <v>-1.2999999999999999E-2</v>
+        <v>-0.013</v>
       </c>
       <c r="E14" s="2">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.029</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="1">
         <v>43282</v>
       </c>
       <c r="B15" s="2">
-        <v>-8.0000000000000002E-3</v>
+        <v>-0.008</v>
       </c>
       <c r="C15" s="2">
         <v>-0.02</v>
       </c>
       <c r="D15" s="2">
-        <v>-1.9E-2</v>
+        <v>-0.019</v>
       </c>
       <c r="E15" s="2">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:5">
       <c r="A16" s="1">
         <v>43313</v>
       </c>
       <c r="B16" s="2">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.003</v>
       </c>
       <c r="C16" s="2">
-        <v>-2.4E-2</v>
+        <v>-0.024</v>
       </c>
       <c r="D16" s="2">
-        <v>-1.0999999999999999E-2</v>
+        <v>-0.011</v>
       </c>
       <c r="E16" s="2">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.048</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17" s="1">
         <v>43344</v>
       </c>
       <c r="B17" s="2">
-        <v>8.0000000000000002E-3</v>
+        <v>0.008</v>
       </c>
       <c r="C17" s="2">
-        <v>-1.7999999999999999E-2</v>
+        <v>-0.018</v>
       </c>
       <c r="D17" s="2">
-        <v>-3.0000000000000001E-3</v>
+        <v>-0.003</v>
       </c>
       <c r="E17" s="2">
-        <v>-4.8000000000000001E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.048</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18" s="1">
         <v>43374</v>
       </c>
       <c r="B18" s="2">
-        <v>1E-3</v>
+        <v>0.001</v>
       </c>
       <c r="C18" s="2">
-        <v>-1.7999999999999999E-2</v>
+        <v>-0.018</v>
       </c>
       <c r="D18" s="2">
-        <v>-1.2E-2</v>
+        <v>-0.012</v>
       </c>
       <c r="E18" s="2">
-        <v>-5.8999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.059</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19" s="1">
         <v>43405</v>
       </c>
       <c r="B19" s="2">
-        <v>-7.0000000000000001E-3</v>
+        <v>-0.007</v>
       </c>
       <c r="C19" s="2">
-        <v>-2.9000000000000001E-2</v>
+        <v>-0.029</v>
       </c>
       <c r="D19" s="2">
-        <v>-1.2999999999999999E-2</v>
+        <v>-0.013</v>
       </c>
       <c r="E19" s="2">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.069</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
       <c r="A20" s="1">
         <v>43435</v>
       </c>
       <c r="B20" s="2">
-        <v>-3.6999999999999998E-2</v>
+        <v>-0.037</v>
       </c>
       <c r="C20" s="2">
-        <v>-4.8000000000000001E-2</v>
+        <v>-0.048</v>
       </c>
       <c r="D20" s="2">
-        <v>-2.3E-2</v>
+        <v>-0.023</v>
       </c>
       <c r="E20" s="2">
-        <v>-8.3000000000000004E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.083</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21" s="1">
         <v>43466</v>
       </c>
       <c r="B21" s="2">
-        <v>-5.7000000000000002E-2</v>
+        <v>-0.057</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.12620000000000001</v>
+        <v>-0.1262</v>
       </c>
       <c r="D21" s="2">
-        <v>-3.56E-2</v>
+        <v>-0.0356</v>
       </c>
       <c r="E21" s="2">
-        <v>-0.14749999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+        <v>-0.1475</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
       <c r="A22" s="1">
         <v>43497</v>
       </c>
       <c r="B22" s="2">
-        <v>-5.3999999999999999E-2</v>
+        <v>-0.054</v>
       </c>
       <c r="C22" s="2">
-        <v>-0.16600000000000001</v>
+        <v>-0.166</v>
       </c>
       <c r="D22" s="2">
         <v>-0.05</v>
@@ -2211,74 +3017,98 @@
         <v>-0.191</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:5">
       <c r="A23" s="1">
         <v>43525</v>
       </c>
       <c r="B23" s="2">
-        <v>-1.2E-2</v>
+        <v>-0.012</v>
       </c>
       <c r="C23" s="2">
         <v>-0.188</v>
       </c>
       <c r="D23" s="2">
-        <v>-2.3E-2</v>
+        <v>-0.023</v>
       </c>
       <c r="E23" s="2">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:5">
       <c r="A24" s="1">
         <v>43556</v>
       </c>
       <c r="B24" s="2">
-        <v>-2.9000000000000001E-2</v>
+        <v>-0.029</v>
       </c>
       <c r="C24" s="2">
-        <v>-0.20799999999999999</v>
+        <v>-0.208</v>
       </c>
       <c r="D24" s="2">
-        <v>-2.5000000000000001E-2</v>
+        <v>-0.025</v>
       </c>
       <c r="E24" s="2">
         <v>-0.223</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:5">
       <c r="A25" s="1">
         <v>43586</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="2">
+        <v>-0.042</v>
+      </c>
+      <c r="C25" s="2">
+        <v>-0.229</v>
+      </c>
+      <c r="D25" s="2">
+        <v>-0.041</v>
+      </c>
+      <c r="E25" s="2">
+        <v>-0.239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="1">
         <v>43617</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:5">
       <c r="A27" s="1">
         <v>43647</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="2">
+        <v>-0.094</v>
+      </c>
+      <c r="C27" s="2">
+        <v>-0.322</v>
+      </c>
+      <c r="D27" s="2">
+        <v>-0.089</v>
+      </c>
+      <c r="E27" s="2">
+        <v>-0.319</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
       <c r="A28" s="1">
         <v>43678</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:1">
       <c r="A29" s="1">
         <v>43709</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:1">
       <c r="A30" s="1">
         <v>43739</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/database/PigData.xlsx
+++ b/database/PigData.xlsx
@@ -111,9 +111,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
   <fonts count="22">
@@ -126,28 +126,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -155,15 +133,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -179,7 +150,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,31 +222,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,36 +269,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -289,7 +289,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -307,169 +463,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,32 +525,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -580,16 +556,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -598,141 +598,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1087,7 +1088,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E115" sqref="E115"/>
+      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1113,7 +1114,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4">
+      <c r="A2" s="5">
         <v>42963</v>
       </c>
       <c r="B2">
@@ -1121,7 +1122,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>42970</v>
       </c>
       <c r="B3">
@@ -1129,7 +1130,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4">
+      <c r="A4" s="5">
         <v>42977</v>
       </c>
       <c r="B4">
@@ -1137,7 +1138,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4">
+      <c r="A5" s="5">
         <v>42984</v>
       </c>
       <c r="B5">
@@ -1145,7 +1146,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4">
+      <c r="A6" s="5">
         <v>42991</v>
       </c>
       <c r="B6">
@@ -1153,7 +1154,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4">
+      <c r="A7" s="5">
         <v>42998</v>
       </c>
       <c r="B7">
@@ -1161,7 +1162,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4">
+      <c r="A8" s="5">
         <v>43005</v>
       </c>
       <c r="B8">
@@ -1169,7 +1170,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4">
+      <c r="A9" s="5">
         <v>43017</v>
       </c>
       <c r="B9">
@@ -1177,7 +1178,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4">
+      <c r="A10" s="5">
         <v>43019</v>
       </c>
       <c r="B10">
@@ -1185,7 +1186,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4">
+      <c r="A11" s="5">
         <v>43026</v>
       </c>
       <c r="B11">
@@ -1193,7 +1194,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="4">
+      <c r="A12" s="5">
         <v>43033</v>
       </c>
       <c r="B12">
@@ -1201,7 +1202,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="4">
+      <c r="A13" s="5">
         <v>43040</v>
       </c>
       <c r="B13">
@@ -1209,7 +1210,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="4">
+      <c r="A14" s="5">
         <v>43047</v>
       </c>
       <c r="B14">
@@ -1217,7 +1218,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="4">
+      <c r="A15" s="5">
         <v>43054</v>
       </c>
       <c r="B15">
@@ -1225,7 +1226,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="4">
+      <c r="A16" s="5">
         <v>43061</v>
       </c>
       <c r="B16">
@@ -1233,7 +1234,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="4">
+      <c r="A17" s="5">
         <v>43096</v>
       </c>
       <c r="B17">
@@ -1241,7 +1242,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="4">
+      <c r="A18" s="5">
         <v>43103</v>
       </c>
       <c r="B18">
@@ -1249,7 +1250,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="4">
+      <c r="A19" s="5">
         <v>43110</v>
       </c>
       <c r="B19">
@@ -1257,12 +1258,12 @@
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4">
+      <c r="A20" s="5">
         <v>43117</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="4">
+      <c r="A21" s="5">
         <v>43124</v>
       </c>
       <c r="B21">
@@ -1270,7 +1271,7 @@
       </c>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="4">
+      <c r="A22" s="5">
         <v>43131</v>
       </c>
       <c r="B22">
@@ -1284,7 +1285,7 @@
       </c>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="4">
+      <c r="A23" s="5">
         <v>43138</v>
       </c>
       <c r="B23">
@@ -1298,12 +1299,12 @@
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4">
+      <c r="A24" s="5">
         <v>43145</v>
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="4">
+      <c r="A25" s="5">
         <v>43152</v>
       </c>
       <c r="B25">
@@ -1314,7 +1315,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="4">
+      <c r="A26" s="5">
         <v>43159</v>
       </c>
       <c r="B26">
@@ -1328,7 +1329,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="4">
+      <c r="A27" s="5">
         <v>43166</v>
       </c>
       <c r="C27">
@@ -1339,7 +1340,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="4">
+      <c r="A28" s="5">
         <v>43173</v>
       </c>
       <c r="B28">
@@ -1353,7 +1354,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="4">
+      <c r="A29" s="5">
         <v>43180</v>
       </c>
       <c r="B29">
@@ -1367,7 +1368,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="4">
+      <c r="A30" s="5">
         <v>43187</v>
       </c>
       <c r="B30">
@@ -1381,7 +1382,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="4">
+      <c r="A31" s="5">
         <v>43194</v>
       </c>
       <c r="B31">
@@ -1395,7 +1396,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="4">
+      <c r="A32" s="5">
         <v>43201</v>
       </c>
       <c r="B32">
@@ -1409,7 +1410,7 @@
       </c>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="4">
+      <c r="A33" s="5">
         <v>43208</v>
       </c>
       <c r="B33">
@@ -1423,7 +1424,7 @@
       </c>
     </row>
     <row r="34" spans="1:4">
-      <c r="A34" s="4">
+      <c r="A34" s="5">
         <v>43215</v>
       </c>
       <c r="B34">
@@ -1437,7 +1438,7 @@
       </c>
     </row>
     <row r="35" spans="1:4">
-      <c r="A35" s="4">
+      <c r="A35" s="5">
         <v>43222</v>
       </c>
       <c r="B35">
@@ -1451,7 +1452,7 @@
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="4">
+      <c r="A36" s="5">
         <v>43229</v>
       </c>
       <c r="B36">
@@ -1465,7 +1466,7 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="4">
+      <c r="A37" s="5">
         <v>43236</v>
       </c>
       <c r="B37">
@@ -1479,7 +1480,7 @@
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="4">
+      <c r="A38" s="5">
         <v>43243</v>
       </c>
       <c r="B38">
@@ -1493,7 +1494,7 @@
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="4">
+      <c r="A39" s="5">
         <v>43250</v>
       </c>
       <c r="B39">
@@ -1507,7 +1508,7 @@
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="4">
+      <c r="A40" s="5">
         <v>43257</v>
       </c>
       <c r="B40">
@@ -1521,7 +1522,7 @@
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="4">
+      <c r="A41" s="5">
         <v>43264</v>
       </c>
       <c r="B41">
@@ -1535,7 +1536,7 @@
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="4">
+      <c r="A42" s="5">
         <v>43271</v>
       </c>
       <c r="B42">
@@ -1549,7 +1550,7 @@
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="4">
+      <c r="A43" s="5">
         <v>43278</v>
       </c>
       <c r="B43">
@@ -1563,7 +1564,7 @@
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="4">
+      <c r="A44" s="5">
         <v>43285</v>
       </c>
       <c r="B44">
@@ -1577,7 +1578,7 @@
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="4">
+      <c r="A45" s="5">
         <v>43292</v>
       </c>
       <c r="B45">
@@ -1591,7 +1592,7 @@
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="4">
+      <c r="A46" s="5">
         <v>43299</v>
       </c>
       <c r="B46">
@@ -1605,7 +1606,7 @@
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="4">
+      <c r="A47" s="5">
         <v>43306</v>
       </c>
       <c r="B47">
@@ -1619,7 +1620,7 @@
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="4">
+      <c r="A48" s="5">
         <v>43313</v>
       </c>
       <c r="B48">
@@ -1633,7 +1634,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="4">
+      <c r="A49" s="5">
         <v>43320</v>
       </c>
       <c r="B49">
@@ -1647,7 +1648,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="4">
+      <c r="A50" s="5">
         <v>43327</v>
       </c>
       <c r="B50">
@@ -1661,7 +1662,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="4">
+      <c r="A51" s="5">
         <v>43334</v>
       </c>
       <c r="C51">
@@ -1672,7 +1673,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="4">
+      <c r="A52" s="5">
         <v>43341</v>
       </c>
       <c r="B52">
@@ -1686,7 +1687,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="4">
+      <c r="A53" s="5">
         <v>43348</v>
       </c>
       <c r="B53">
@@ -1700,7 +1701,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="4">
+      <c r="A54" s="5">
         <v>43355</v>
       </c>
       <c r="B54">
@@ -1714,7 +1715,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="4">
+      <c r="A55" s="5">
         <v>43362</v>
       </c>
       <c r="B55">
@@ -1728,7 +1729,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="4">
+      <c r="A56" s="5">
         <v>43369</v>
       </c>
       <c r="C56">
@@ -1739,7 +1740,7 @@
       </c>
     </row>
     <row r="57" spans="1:2">
-      <c r="A57" s="4">
+      <c r="A57" s="5">
         <v>43376</v>
       </c>
       <c r="B57">
@@ -1747,7 +1748,7 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="4">
+      <c r="A58" s="5">
         <v>43383</v>
       </c>
       <c r="B58">
@@ -1761,7 +1762,7 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="4">
+      <c r="A59" s="5">
         <v>43390</v>
       </c>
       <c r="B59">
@@ -1775,7 +1776,7 @@
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="4">
+      <c r="A60" s="5">
         <v>43397</v>
       </c>
       <c r="B60">
@@ -1789,7 +1790,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="4">
+      <c r="A61" s="5">
         <v>43404</v>
       </c>
       <c r="B61">
@@ -1803,7 +1804,7 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="4">
+      <c r="A62" s="5">
         <v>43411</v>
       </c>
       <c r="B62">
@@ -1817,7 +1818,7 @@
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="4">
+      <c r="A63" s="5">
         <v>43418</v>
       </c>
       <c r="B63">
@@ -1831,7 +1832,7 @@
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="4">
+      <c r="A64" s="5">
         <v>43425</v>
       </c>
       <c r="B64">
@@ -1845,7 +1846,7 @@
       </c>
     </row>
     <row r="65" spans="1:3">
-      <c r="A65" s="4">
+      <c r="A65" s="5">
         <v>43432</v>
       </c>
       <c r="B65">
@@ -1856,7 +1857,7 @@
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="4">
+      <c r="A66" s="5">
         <v>43439</v>
       </c>
       <c r="B66">
@@ -1870,7 +1871,7 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="4">
+      <c r="A67" s="5">
         <v>43446</v>
       </c>
       <c r="B67">
@@ -1884,7 +1885,7 @@
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="4">
+      <c r="A68" s="5">
         <v>43453</v>
       </c>
       <c r="B68">
@@ -1898,7 +1899,7 @@
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="4">
+      <c r="A69" s="5">
         <v>43460</v>
       </c>
       <c r="B69">
@@ -1912,7 +1913,7 @@
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="4">
+      <c r="A70" s="5">
         <v>43467</v>
       </c>
       <c r="B70">
@@ -1926,7 +1927,7 @@
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="4">
+      <c r="A71" s="5">
         <v>43474</v>
       </c>
       <c r="B71">
@@ -1940,7 +1941,7 @@
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="4">
+      <c r="A72" s="5">
         <v>43481</v>
       </c>
       <c r="B72">
@@ -1954,7 +1955,7 @@
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="4">
+      <c r="A73" s="5">
         <v>43488</v>
       </c>
       <c r="B73">
@@ -1968,7 +1969,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="4">
+      <c r="A74" s="5">
         <v>43495</v>
       </c>
       <c r="C74">
@@ -1979,7 +1980,7 @@
       </c>
     </row>
     <row r="75" spans="1:2">
-      <c r="A75" s="4">
+      <c r="A75" s="5">
         <v>43502</v>
       </c>
       <c r="B75">
@@ -1987,7 +1988,7 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="4">
+      <c r="A76" s="5">
         <v>43509</v>
       </c>
       <c r="B76">
@@ -2001,7 +2002,7 @@
       </c>
     </row>
     <row r="77" spans="1:2">
-      <c r="A77" s="4">
+      <c r="A77" s="5">
         <v>43516</v>
       </c>
       <c r="B77">
@@ -2009,7 +2010,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="4">
+      <c r="A78" s="5">
         <v>43523</v>
       </c>
       <c r="B78">
@@ -2023,7 +2024,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="4">
+      <c r="A79" s="5">
         <v>43530</v>
       </c>
       <c r="B79">
@@ -2037,7 +2038,7 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="4">
+      <c r="A80" s="5">
         <v>43537</v>
       </c>
       <c r="B80">
@@ -2051,7 +2052,7 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="4">
+      <c r="A81" s="5">
         <v>43544</v>
       </c>
       <c r="B81">
@@ -2065,7 +2066,7 @@
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="4">
+      <c r="A82" s="5">
         <v>43551</v>
       </c>
       <c r="B82">
@@ -2079,7 +2080,7 @@
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="4">
+      <c r="A83" s="5">
         <v>43558</v>
       </c>
       <c r="B83">
@@ -2093,7 +2094,7 @@
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="4">
+      <c r="A84" s="5">
         <v>43565</v>
       </c>
       <c r="B84">
@@ -2107,7 +2108,7 @@
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="4">
+      <c r="A85" s="5">
         <v>43572</v>
       </c>
       <c r="B85">
@@ -2121,7 +2122,7 @@
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="4">
+      <c r="A86" s="5">
         <v>43579</v>
       </c>
       <c r="B86">
@@ -2135,7 +2136,7 @@
       </c>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="4">
+      <c r="A87" s="5">
         <v>43585</v>
       </c>
       <c r="B87">
@@ -2149,7 +2150,7 @@
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="4">
+      <c r="A88" s="5">
         <v>43593</v>
       </c>
       <c r="B88">
@@ -2163,7 +2164,7 @@
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="4">
+      <c r="A89" s="5">
         <v>43600</v>
       </c>
       <c r="B89">
@@ -2177,7 +2178,7 @@
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="4">
+      <c r="A90" s="5">
         <v>43607</v>
       </c>
       <c r="B90">
@@ -2191,7 +2192,7 @@
       </c>
     </row>
     <row r="91" spans="1:4">
-      <c r="A91" s="4">
+      <c r="A91" s="5">
         <v>43614</v>
       </c>
       <c r="B91">
@@ -2205,7 +2206,7 @@
       </c>
     </row>
     <row r="92" spans="1:4">
-      <c r="A92" s="4">
+      <c r="A92" s="5">
         <v>43621</v>
       </c>
       <c r="B92">
@@ -2219,7 +2220,7 @@
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="4">
+      <c r="A93" s="5">
         <v>43628</v>
       </c>
       <c r="B93">
@@ -2233,7 +2234,7 @@
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="4">
+      <c r="A94" s="5">
         <v>43635</v>
       </c>
       <c r="B94">
@@ -2247,7 +2248,7 @@
       </c>
     </row>
     <row r="95" spans="1:4">
-      <c r="A95" s="4">
+      <c r="A95" s="5">
         <v>43642</v>
       </c>
       <c r="B95">
@@ -2261,7 +2262,7 @@
       </c>
     </row>
     <row r="96" spans="1:4">
-      <c r="A96" s="4">
+      <c r="A96" s="5">
         <v>43649</v>
       </c>
       <c r="B96">
@@ -2275,7 +2276,7 @@
       </c>
     </row>
     <row r="97" spans="1:4">
-      <c r="A97" s="4">
+      <c r="A97" s="5">
         <v>43656</v>
       </c>
       <c r="B97">
@@ -2289,7 +2290,7 @@
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="4">
+      <c r="A98" s="5">
         <v>43663</v>
       </c>
       <c r="B98">
@@ -2303,7 +2304,7 @@
       </c>
     </row>
     <row r="99" spans="1:4">
-      <c r="A99" s="4">
+      <c r="A99" s="5">
         <v>43670</v>
       </c>
       <c r="B99">
@@ -2317,7 +2318,7 @@
       </c>
     </row>
     <row r="100" spans="1:4">
-      <c r="A100" s="4">
+      <c r="A100" s="5">
         <v>43677</v>
       </c>
       <c r="B100">
@@ -2331,7 +2332,7 @@
       </c>
     </row>
     <row r="101" spans="1:4">
-      <c r="A101" s="4">
+      <c r="A101" s="5">
         <v>43684</v>
       </c>
       <c r="B101">
@@ -2345,7 +2346,7 @@
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="4">
+      <c r="A102" s="5">
         <v>43691</v>
       </c>
       <c r="B102">
@@ -2359,7 +2360,7 @@
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="4">
+      <c r="A103" s="5">
         <v>43698</v>
       </c>
       <c r="B103">
@@ -2373,7 +2374,7 @@
       </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="4">
+      <c r="A104" s="5">
         <v>43705</v>
       </c>
       <c r="B104">
@@ -2387,7 +2388,7 @@
       </c>
     </row>
     <row r="105" spans="1:4">
-      <c r="A105" s="4">
+      <c r="A105" s="5">
         <v>43712</v>
       </c>
       <c r="B105">
@@ -2401,7 +2402,7 @@
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="4">
+      <c r="A106" s="5">
         <v>43719</v>
       </c>
       <c r="B106">
@@ -2415,7 +2416,7 @@
       </c>
     </row>
     <row r="107" spans="1:4">
-      <c r="A107" s="4">
+      <c r="A107" s="5">
         <v>43726</v>
       </c>
       <c r="B107">
@@ -2429,7 +2430,7 @@
       </c>
     </row>
     <row r="108" spans="1:4">
-      <c r="A108" s="4">
+      <c r="A108" s="5">
         <v>43733</v>
       </c>
       <c r="B108">
@@ -2443,7 +2444,7 @@
       </c>
     </row>
     <row r="109" spans="1:2">
-      <c r="A109" s="4">
+      <c r="A109" s="5">
         <v>43740</v>
       </c>
       <c r="B109">
@@ -2451,7 +2452,7 @@
       </c>
     </row>
     <row r="110" spans="1:4">
-      <c r="A110" s="4">
+      <c r="A110" s="5">
         <v>43746</v>
       </c>
       <c r="C110">
@@ -2462,7 +2463,7 @@
       </c>
     </row>
     <row r="111" spans="1:4">
-      <c r="A111" s="4">
+      <c r="A111" s="5">
         <v>43754</v>
       </c>
       <c r="B111">
@@ -2475,167 +2476,199 @@
         <v>85.71</v>
       </c>
     </row>
-    <row r="112" spans="1:1">
-      <c r="A112" s="4"/>
-    </row>
-    <row r="113" spans="1:1">
-      <c r="A113" s="4"/>
-    </row>
-    <row r="114" spans="1:1">
-      <c r="A114" s="4"/>
+    <row r="112" spans="1:4">
+      <c r="A112" s="5">
+        <v>43761</v>
+      </c>
+      <c r="B112">
+        <v>73.5</v>
+      </c>
+      <c r="C112">
+        <v>53.79</v>
+      </c>
+      <c r="D112">
+        <v>87.071</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="5">
+        <f>A112+7</f>
+        <v>43768</v>
+      </c>
+      <c r="B113">
+        <v>77.55</v>
+      </c>
+      <c r="C113">
+        <v>53.45</v>
+      </c>
+      <c r="D113">
+        <v>88.06</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="5">
+        <f>A113+7</f>
+        <v>43775</v>
+      </c>
+      <c r="C114">
+        <v>51.21</v>
+      </c>
+      <c r="D114">
+        <v>88.81</v>
+      </c>
     </row>
     <row r="115" spans="1:1">
-      <c r="A115" s="4"/>
+      <c r="A115" s="5"/>
     </row>
     <row r="116" spans="1:1">
-      <c r="A116" s="4"/>
+      <c r="A116" s="5"/>
     </row>
     <row r="117" spans="1:1">
-      <c r="A117" s="4"/>
+      <c r="A117" s="5"/>
     </row>
     <row r="118" spans="1:1">
-      <c r="A118" s="4"/>
+      <c r="A118" s="5"/>
     </row>
     <row r="119" spans="1:1">
-      <c r="A119" s="4"/>
+      <c r="A119" s="5"/>
     </row>
     <row r="120" spans="1:1">
-      <c r="A120" s="4"/>
+      <c r="A120" s="5"/>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="4"/>
+      <c r="A121" s="5"/>
     </row>
     <row r="122" spans="1:1">
-      <c r="A122" s="4"/>
+      <c r="A122" s="5"/>
     </row>
     <row r="123" spans="1:1">
-      <c r="A123" s="4"/>
+      <c r="A123" s="5"/>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="4"/>
+      <c r="A124" s="5"/>
     </row>
     <row r="125" spans="1:1">
-      <c r="A125" s="4"/>
+      <c r="A125" s="5"/>
     </row>
     <row r="126" spans="1:1">
-      <c r="A126" s="4"/>
+      <c r="A126" s="5"/>
     </row>
     <row r="127" spans="1:1">
-      <c r="A127" s="4"/>
+      <c r="A127" s="5"/>
     </row>
     <row r="128" spans="1:1">
-      <c r="A128" s="4"/>
+      <c r="A128" s="5"/>
     </row>
     <row r="129" spans="1:1">
-      <c r="A129" s="4"/>
+      <c r="A129" s="5"/>
     </row>
     <row r="130" spans="1:1">
-      <c r="A130" s="4"/>
+      <c r="A130" s="5"/>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="4"/>
+      <c r="A131" s="5"/>
     </row>
     <row r="132" spans="1:1">
-      <c r="A132" s="4"/>
+      <c r="A132" s="5"/>
     </row>
     <row r="133" spans="1:1">
-      <c r="A133" s="4"/>
+      <c r="A133" s="5"/>
     </row>
     <row r="134" spans="1:1">
-      <c r="A134" s="4"/>
+      <c r="A134" s="5"/>
     </row>
     <row r="135" spans="1:1">
-      <c r="A135" s="4"/>
+      <c r="A135" s="5"/>
     </row>
     <row r="136" spans="1:1">
-      <c r="A136" s="4"/>
+      <c r="A136" s="5"/>
     </row>
     <row r="137" spans="1:1">
-      <c r="A137" s="4"/>
+      <c r="A137" s="5"/>
     </row>
     <row r="138" spans="1:1">
-      <c r="A138" s="4"/>
+      <c r="A138" s="5"/>
     </row>
     <row r="139" spans="1:1">
-      <c r="A139" s="4"/>
+      <c r="A139" s="5"/>
     </row>
     <row r="140" spans="1:1">
-      <c r="A140" s="4"/>
+      <c r="A140" s="5"/>
     </row>
     <row r="141" spans="1:1">
-      <c r="A141" s="4"/>
+      <c r="A141" s="5"/>
     </row>
     <row r="142" spans="1:1">
-      <c r="A142" s="4"/>
+      <c r="A142" s="5"/>
     </row>
     <row r="143" spans="1:1">
-      <c r="A143" s="4"/>
+      <c r="A143" s="5"/>
     </row>
     <row r="144" spans="1:1">
-      <c r="A144" s="4"/>
+      <c r="A144" s="5"/>
     </row>
     <row r="145" spans="1:1">
-      <c r="A145" s="4"/>
+      <c r="A145" s="5"/>
     </row>
     <row r="146" spans="1:1">
-      <c r="A146" s="4"/>
+      <c r="A146" s="5"/>
     </row>
     <row r="147" spans="1:1">
-      <c r="A147" s="4"/>
+      <c r="A147" s="5"/>
     </row>
     <row r="148" spans="1:1">
-      <c r="A148" s="4"/>
+      <c r="A148" s="5"/>
     </row>
     <row r="149" spans="1:1">
-      <c r="A149" s="4"/>
+      <c r="A149" s="5"/>
     </row>
     <row r="150" spans="1:1">
-      <c r="A150" s="4"/>
+      <c r="A150" s="5"/>
     </row>
     <row r="151" spans="1:1">
-      <c r="A151" s="4"/>
+      <c r="A151" s="5"/>
     </row>
     <row r="152" spans="1:1">
-      <c r="A152" s="4"/>
+      <c r="A152" s="5"/>
     </row>
     <row r="153" spans="1:1">
-      <c r="A153" s="4"/>
+      <c r="A153" s="5"/>
     </row>
     <row r="154" spans="1:1">
-      <c r="A154" s="4"/>
+      <c r="A154" s="5"/>
     </row>
     <row r="155" spans="1:1">
-      <c r="A155" s="4"/>
+      <c r="A155" s="5"/>
     </row>
     <row r="156" spans="1:1">
-      <c r="A156" s="4"/>
+      <c r="A156" s="5"/>
     </row>
     <row r="157" spans="1:1">
-      <c r="A157" s="4"/>
+      <c r="A157" s="5"/>
     </row>
     <row r="158" spans="1:1">
-      <c r="A158" s="4"/>
+      <c r="A158" s="5"/>
     </row>
     <row r="159" spans="1:1">
-      <c r="A159" s="4"/>
+      <c r="A159" s="5"/>
     </row>
     <row r="160" spans="1:1">
-      <c r="A160" s="4"/>
+      <c r="A160" s="5"/>
     </row>
     <row r="161" spans="1:1">
-      <c r="A161" s="4"/>
+      <c r="A161" s="5"/>
     </row>
     <row r="162" spans="1:1">
-      <c r="A162" s="4"/>
+      <c r="A162" s="5"/>
     </row>
     <row r="163" spans="1:1">
-      <c r="A163" s="4"/>
+      <c r="A163" s="5"/>
     </row>
     <row r="164" spans="1:1">
-      <c r="A164" s="4"/>
+      <c r="A164" s="5"/>
     </row>
     <row r="165" spans="1:1">
-      <c r="A165" s="4"/>
+      <c r="A165" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2650,7 +2683,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3090,14 +3123,38 @@
         <v>-0.319</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:5">
       <c r="A28" s="1">
         <v>43678</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
+      <c r="B28" s="2">
+        <v>-0.098</v>
+      </c>
+      <c r="C28" s="2">
+        <v>-0.387</v>
+      </c>
+      <c r="D28" s="2">
+        <v>-0.091</v>
+      </c>
+      <c r="E28" s="2">
+        <v>-0.374</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
       <c r="A29" s="1">
         <v>43709</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-0.03</v>
+      </c>
+      <c r="C29" s="2">
+        <v>-0.411</v>
+      </c>
+      <c r="D29" s="4">
+        <v>-2.8</v>
+      </c>
+      <c r="E29" s="2">
+        <v>-0.389</v>
       </c>
     </row>
     <row r="30" spans="1:1">

--- a/database/PigData.xlsx
+++ b/database/PigData.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\workstation\database\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="24345" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24225" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="PigPrice" sheetId="1" r:id="rId1"/>
     <sheet name="livestock" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -20,13 +25,14 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B40" authorId="0">
+    <comment ref="B40" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -35,6 +41,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -52,13 +59,14 @@
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B9" authorId="0">
+    <comment ref="B9" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -67,6 +75,7 @@
           <rPr>
             <sz val="9"/>
             <rFont val="宋体"/>
+            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
@@ -108,15 +117,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;;@"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,356 +130,43 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -482,249 +174,10 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -732,65 +185,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -839,7 +249,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -874,7 +284,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1077,21 +487,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D165"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="H100" sqref="H100"/>
+      <pane ySplit="1" topLeftCell="A105" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F123" sqref="F123"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="20.375" customWidth="1"/>
@@ -1099,7 +508,7 @@
     <col min="4" max="4" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1113,15 +522,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="5">
         <v>42963</v>
       </c>
       <c r="B2">
-        <v>34.91</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>34.909999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="5">
         <v>42970</v>
       </c>
@@ -1129,7 +538,7 @@
         <v>34.78</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="5">
         <v>42977</v>
       </c>
@@ -1137,7 +546,7 @@
         <v>34.76</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="5">
         <v>42984</v>
       </c>
@@ -1145,15 +554,15 @@
         <v>34.68</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="5">
         <v>42991</v>
       </c>
       <c r="B6">
-        <v>34.45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>34.450000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="5">
         <v>42998</v>
       </c>
@@ -1161,23 +570,23 @@
         <v>34.11</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="5">
         <v>43005</v>
       </c>
       <c r="B8">
-        <v>33.73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>33.729999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="5">
         <v>43017</v>
       </c>
       <c r="B9">
-        <v>33.3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>33.299999999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="5">
         <v>43019</v>
       </c>
@@ -1185,7 +594,7 @@
         <v>33.01</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="5">
         <v>43026</v>
       </c>
@@ -1193,7 +602,7 @@
         <v>32.47</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="5">
         <v>43033</v>
       </c>
@@ -1201,7 +610,7 @@
         <v>32.03</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="5">
         <v>43040</v>
       </c>
@@ -1209,7 +618,7 @@
         <v>31.55</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="5">
         <v>43047</v>
       </c>
@@ -1217,7 +626,7 @@
         <v>31.13</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A15" s="5">
         <v>43054</v>
       </c>
@@ -1225,7 +634,7 @@
         <v>30.55</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A16" s="5">
         <v>43061</v>
       </c>
@@ -1233,7 +642,7 @@
         <v>30.58</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A17" s="5">
         <v>43096</v>
       </c>
@@ -1241,7 +650,7 @@
         <v>30.55</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A18" s="5">
         <v>43103</v>
       </c>
@@ -1249,7 +658,7 @@
         <v>30.54</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A19" s="5">
         <v>43110</v>
       </c>
@@ -1257,12 +666,12 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A20" s="5">
         <v>43117</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A21" s="5">
         <v>43124</v>
       </c>
@@ -1270,7 +679,7 @@
         <v>30.7</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A22" s="5">
         <v>43131</v>
       </c>
@@ -1284,7 +693,7 @@
         <v>84.13</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A23" s="5">
         <v>43138</v>
       </c>
@@ -1292,18 +701,18 @@
         <v>30.22</v>
       </c>
       <c r="C23">
-        <v>18.69</v>
+        <v>18.690000000000001</v>
       </c>
       <c r="D23">
         <v>84.13</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A24" s="5">
         <v>43145</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A25" s="5">
         <v>43152</v>
       </c>
@@ -1311,10 +720,10 @@
         <v>29.87</v>
       </c>
       <c r="C25">
-        <v>18.17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>18.170000000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A26" s="5">
         <v>43159</v>
       </c>
@@ -1328,7 +737,7 @@
         <v>83.43</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A27" s="5">
         <v>43166</v>
       </c>
@@ -1339,7 +748,7 @@
         <v>83.56</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A28" s="5">
         <v>43173</v>
       </c>
@@ -1353,7 +762,7 @@
         <v>83.72</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A29" s="5">
         <v>43180</v>
       </c>
@@ -1367,7 +776,7 @@
         <v>83.93</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A30" s="5">
         <v>43187</v>
       </c>
@@ -1381,7 +790,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A31" s="5">
         <v>43194</v>
       </c>
@@ -1395,7 +804,7 @@
         <v>84.05</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A32" s="5">
         <v>43201</v>
       </c>
@@ -1409,7 +818,7 @@
         <v>84.11</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A33" s="5">
         <v>43208</v>
       </c>
@@ -1423,7 +832,7 @@
         <v>84.17</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A34" s="5">
         <v>43215</v>
       </c>
@@ -1437,7 +846,7 @@
         <v>84.2</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A35" s="5">
         <v>43222</v>
       </c>
@@ -1451,7 +860,7 @@
         <v>84.13</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A36" s="5">
         <v>43229</v>
       </c>
@@ -1465,7 +874,7 @@
         <v>84.13</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A37" s="5">
         <v>43236</v>
       </c>
@@ -1479,7 +888,7 @@
         <v>84.01</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A38" s="5">
         <v>43243</v>
       </c>
@@ -1493,7 +902,7 @@
         <v>83.8</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A39" s="5">
         <v>43250</v>
       </c>
@@ -1507,7 +916,7 @@
         <v>83.57</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A40" s="5">
         <v>43257</v>
       </c>
@@ -1521,7 +930,7 @@
         <v>83.43</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A41" s="5">
         <v>43264</v>
       </c>
@@ -1535,7 +944,7 @@
         <v>83.27</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A42" s="5">
         <v>43271</v>
       </c>
@@ -1549,7 +958,7 @@
         <v>83.19</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A43" s="5">
         <v>43278</v>
       </c>
@@ -1563,7 +972,7 @@
         <v>83.16</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A44" s="5">
         <v>43285</v>
       </c>
@@ -1577,7 +986,7 @@
         <v>83.05</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A45" s="5">
         <v>43292</v>
       </c>
@@ -1585,13 +994,13 @@
         <v>24.26</v>
       </c>
       <c r="C45">
-        <v>17.24</v>
+        <v>17.239999999999998</v>
       </c>
       <c r="D45">
         <v>83.32</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A46" s="5">
         <v>43299</v>
       </c>
@@ -1605,7 +1014,7 @@
         <v>83.26</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A47" s="5">
         <v>43306</v>
       </c>
@@ -1619,7 +1028,7 @@
         <v>83.17</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A48" s="5">
         <v>43313</v>
       </c>
@@ -1633,7 +1042,7 @@
         <v>83.09</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A49" s="5">
         <v>43320</v>
       </c>
@@ -1647,7 +1056,7 @@
         <v>82.98</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A50" s="5">
         <v>43327</v>
       </c>
@@ -1661,7 +1070,7 @@
         <v>82.78</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A51" s="5">
         <v>43334</v>
       </c>
@@ -1672,7 +1081,7 @@
         <v>82.7</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A52" s="5">
         <v>43341</v>
       </c>
@@ -1686,7 +1095,7 @@
         <v>81.3</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A53" s="5">
         <v>43348</v>
       </c>
@@ -1694,13 +1103,13 @@
         <v>25.74</v>
       </c>
       <c r="C53">
-        <v>19.06</v>
+        <v>19.059999999999999</v>
       </c>
       <c r="D53">
         <v>82.34</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A54" s="5">
         <v>43355</v>
       </c>
@@ -1714,7 +1123,7 @@
         <v>82.05</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A55" s="5">
         <v>43362</v>
       </c>
@@ -1725,21 +1134,21 @@
         <v>19.38</v>
       </c>
       <c r="D55">
-        <v>81.74</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>81.739999999999995</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A56" s="5">
         <v>43369</v>
       </c>
       <c r="C56">
-        <v>19.31</v>
+        <v>19.309999999999999</v>
       </c>
       <c r="D56">
         <v>81.83</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A57" s="5">
         <v>43376</v>
       </c>
@@ -1747,7 +1156,7 @@
         <v>25.3</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A58" s="5">
         <v>43383</v>
       </c>
@@ -1755,13 +1164,13 @@
         <v>25.06</v>
       </c>
       <c r="C58">
-        <v>19.17</v>
+        <v>19.170000000000002</v>
       </c>
       <c r="D58">
-        <v>80.65</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>80.650000000000006</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A59" s="5">
         <v>43390</v>
       </c>
@@ -1775,7 +1184,7 @@
         <v>82.54</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A60" s="5">
         <v>43397</v>
       </c>
@@ -1789,7 +1198,7 @@
         <v>83.5</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A61" s="5">
         <v>43404</v>
       </c>
@@ -1803,7 +1212,7 @@
         <v>83.75</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A62" s="5">
         <v>43411</v>
       </c>
@@ -1811,13 +1220,13 @@
         <v>23.83</v>
       </c>
       <c r="C62">
-        <v>18.24</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="D62">
         <v>83.93</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A63" s="5">
         <v>43418</v>
       </c>
@@ -1831,7 +1240,7 @@
         <v>84.37</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A64" s="5">
         <v>43425</v>
       </c>
@@ -1845,7 +1254,7 @@
         <v>84.38</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A65" s="5">
         <v>43432</v>
       </c>
@@ -1856,7 +1265,7 @@
         <v>17.63</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A66" s="5">
         <v>43439</v>
       </c>
@@ -1864,13 +1273,13 @@
         <v>22.8</v>
       </c>
       <c r="C66">
-        <v>18.01</v>
+        <v>18.010000000000002</v>
       </c>
       <c r="D66">
         <v>84.85</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A67" s="5">
         <v>43446</v>
       </c>
@@ -1884,7 +1293,7 @@
         <v>85.05</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A68" s="5">
         <v>43453</v>
       </c>
@@ -1898,7 +1307,7 @@
         <v>85.12</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A69" s="5">
         <v>43460</v>
       </c>
@@ -1912,7 +1321,7 @@
         <v>85.18</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A70" s="5">
         <v>43467</v>
       </c>
@@ -1920,13 +1329,13 @@
         <v>22.44</v>
       </c>
       <c r="C70">
-        <v>17.58</v>
+        <v>17.579999999999998</v>
       </c>
       <c r="D70">
         <v>84.98</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A71" s="5">
         <v>43474</v>
       </c>
@@ -1934,13 +1343,13 @@
         <v>22.22</v>
       </c>
       <c r="C71">
-        <v>17.01</v>
+        <v>17.010000000000002</v>
       </c>
       <c r="D71">
         <v>84.89</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A72" s="5">
         <v>43481</v>
       </c>
@@ -1954,7 +1363,7 @@
         <v>84.41</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A73" s="5">
         <v>43488</v>
       </c>
@@ -1968,7 +1377,7 @@
         <v>84.18</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A74" s="5">
         <v>43495</v>
       </c>
@@ -1979,7 +1388,7 @@
         <v>83.79</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A75" s="5">
         <v>43502</v>
       </c>
@@ -1987,7 +1396,7 @@
         <v>21.59</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A76" s="5">
         <v>43509</v>
       </c>
@@ -2001,7 +1410,7 @@
         <v>83.19</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A77" s="5">
         <v>43516</v>
       </c>
@@ -2009,7 +1418,7 @@
         <v>23.57</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A78" s="5">
         <v>43523</v>
       </c>
@@ -2023,7 +1432,7 @@
         <v>83.04</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A79" s="5">
         <v>43530</v>
       </c>
@@ -2037,7 +1446,7 @@
         <v>83.14</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A80" s="5">
         <v>43537</v>
       </c>
@@ -2051,7 +1460,7 @@
         <v>83.38</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A81" s="5">
         <v>43544</v>
       </c>
@@ -2065,12 +1474,12 @@
         <v>83.59</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A82" s="5">
         <v>43551</v>
       </c>
       <c r="B82">
-        <v>34.16</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="C82">
         <v>20.32</v>
@@ -2079,7 +1488,7 @@
         <v>84.12</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A83" s="5">
         <v>43558</v>
       </c>
@@ -2087,18 +1496,18 @@
         <v>35.61</v>
       </c>
       <c r="C83">
-        <v>20.4</v>
+        <v>20.399999999999999</v>
       </c>
       <c r="D83">
         <v>84.24</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A84" s="5">
         <v>43565</v>
       </c>
       <c r="B84">
-        <v>36.34</v>
+        <v>36.340000000000003</v>
       </c>
       <c r="C84">
         <v>20.28</v>
@@ -2107,7 +1516,7 @@
         <v>84.34</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A85" s="5">
         <v>43572</v>
       </c>
@@ -2115,13 +1524,13 @@
         <v>36.69</v>
       </c>
       <c r="C85">
-        <v>19.85</v>
+        <v>19.850000000000001</v>
       </c>
       <c r="D85">
         <v>84.4</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A86" s="5">
         <v>43579</v>
       </c>
@@ -2129,13 +1538,13 @@
         <v>37.17</v>
       </c>
       <c r="C86">
-        <v>20.19</v>
+        <v>20.190000000000001</v>
       </c>
       <c r="D86">
         <v>84.47</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A87" s="5">
         <v>43585</v>
       </c>
@@ -2149,7 +1558,7 @@
         <v>84.51</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A88" s="5">
         <v>43593</v>
       </c>
@@ -2163,12 +1572,12 @@
         <v>84.45</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A89" s="5">
         <v>43600</v>
       </c>
       <c r="B89">
-        <v>38.16</v>
+        <v>38.159999999999997</v>
       </c>
       <c r="C89">
         <v>20.23</v>
@@ -2177,7 +1586,7 @@
         <v>84.75</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A90" s="5">
         <v>43607</v>
       </c>
@@ -2191,7 +1600,7 @@
         <v>84.98</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A91" s="5">
         <v>43614</v>
       </c>
@@ -2205,12 +1614,12 @@
         <v>85.04</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A92" s="5">
         <v>43621</v>
       </c>
       <c r="B92">
-        <v>38.98</v>
+        <v>38.979999999999997</v>
       </c>
       <c r="C92">
         <v>21.67</v>
@@ -2219,7 +1628,7 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A93" s="5">
         <v>43628</v>
       </c>
@@ -2233,7 +1642,7 @@
         <v>85.11</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A94" s="5">
         <v>43635</v>
       </c>
@@ -2247,7 +1656,7 @@
         <v>85.23</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A95" s="5">
         <v>43642</v>
       </c>
@@ -2261,7 +1670,7 @@
         <v>85.03</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A96" s="5">
         <v>43649</v>
       </c>
@@ -2275,7 +1684,7 @@
         <v>84.78</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A97" s="5">
         <v>43656</v>
       </c>
@@ -2289,7 +1698,7 @@
         <v>84.65</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A98" s="5">
         <v>43663</v>
       </c>
@@ -2303,7 +1712,7 @@
         <v>84.56</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A99" s="5">
         <v>43670</v>
       </c>
@@ -2317,7 +1726,7 @@
         <v>84.34</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A100" s="5">
         <v>43677</v>
       </c>
@@ -2331,7 +1740,7 @@
         <v>84.08</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A101" s="5">
         <v>43684</v>
       </c>
@@ -2345,7 +1754,7 @@
         <v>83.69</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A102" s="5">
         <v>43691</v>
       </c>
@@ -2359,7 +1768,7 @@
         <v>83.46</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A103" s="5">
         <v>43698</v>
       </c>
@@ -2367,13 +1776,13 @@
         <v>47.95</v>
       </c>
       <c r="C103">
-        <v>32.59</v>
+        <v>32.590000000000003</v>
       </c>
       <c r="D103">
         <v>83.41</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A104" s="5">
         <v>43705</v>
       </c>
@@ -2387,7 +1796,7 @@
         <v>83.27</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A105" s="5">
         <v>43712</v>
       </c>
@@ -2401,7 +1810,7 @@
         <v>83.52</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A106" s="5">
         <v>43719</v>
       </c>
@@ -2415,7 +1824,7 @@
         <v>83.75</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A107" s="5">
         <v>43726</v>
       </c>
@@ -2423,13 +1832,13 @@
         <v>56.81</v>
       </c>
       <c r="C107">
-        <v>37.66</v>
+        <v>37.659999999999997</v>
       </c>
       <c r="D107">
         <v>83.99</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A108" s="5">
         <v>43733</v>
       </c>
@@ -2443,7 +1852,7 @@
         <v>84.27</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A109" s="5">
         <v>43740</v>
       </c>
@@ -2451,7 +1860,7 @@
         <v>59.9</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A110" s="5">
         <v>43746</v>
       </c>
@@ -2462,12 +1871,12 @@
         <v>85.14</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A111" s="5">
         <v>43754</v>
       </c>
       <c r="B111">
-        <v>67.57</v>
+        <v>67.569999999999993</v>
       </c>
       <c r="C111">
         <v>46.43</v>
@@ -2476,7 +1885,7 @@
         <v>85.71</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A112" s="5">
         <v>43761</v>
       </c>
@@ -2487,12 +1896,12 @@
         <v>53.79</v>
       </c>
       <c r="D112">
-        <v>87.071</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>87.070999999999998</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A113" s="5">
-        <f>A112+7</f>
+        <f t="shared" ref="A113:A122" si="0">A112+7</f>
         <v>43768</v>
       </c>
       <c r="B113">
@@ -2505,10 +1914,13 @@
         <v>88.06</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A114" s="5">
-        <f>A113+7</f>
+        <f t="shared" si="0"/>
         <v>43775</v>
+      </c>
+      <c r="B114">
+        <v>79.37</v>
       </c>
       <c r="C114">
         <v>51.21</v>
@@ -2517,183 +1929,279 @@
         <v>88.81</v>
       </c>
     </row>
-    <row r="115" spans="1:1">
-      <c r="A115" s="5"/>
-    </row>
-    <row r="116" spans="1:1">
-      <c r="A116" s="5"/>
-    </row>
-    <row r="117" spans="1:1">
-      <c r="A117" s="5"/>
-    </row>
-    <row r="118" spans="1:1">
-      <c r="A118" s="5"/>
-    </row>
-    <row r="119" spans="1:1">
-      <c r="A119" s="5"/>
-    </row>
-    <row r="120" spans="1:1">
-      <c r="A120" s="5"/>
-    </row>
-    <row r="121" spans="1:1">
-      <c r="A121" s="5"/>
-    </row>
-    <row r="122" spans="1:1">
-      <c r="A122" s="5"/>
-    </row>
-    <row r="123" spans="1:1">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A115" s="5">
+        <f t="shared" si="0"/>
+        <v>43782</v>
+      </c>
+      <c r="B115">
+        <v>78.930000000000007</v>
+      </c>
+      <c r="C115">
+        <v>46.27</v>
+      </c>
+      <c r="D115">
+        <v>88.96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A116" s="5">
+        <f t="shared" si="0"/>
+        <v>43789</v>
+      </c>
+      <c r="B116">
+        <v>76.8</v>
+      </c>
+      <c r="C116">
+        <v>42.56</v>
+      </c>
+      <c r="D116">
+        <v>89.41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A117" s="5">
+        <f t="shared" si="0"/>
+        <v>43796</v>
+      </c>
+      <c r="B117">
+        <v>75.88</v>
+      </c>
+      <c r="C117">
+        <v>40.840000000000003</v>
+      </c>
+      <c r="D117">
+        <v>90.29</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A118" s="5">
+        <f t="shared" si="0"/>
+        <v>43803</v>
+      </c>
+      <c r="B118">
+        <v>75.680000000000007</v>
+      </c>
+      <c r="C118">
+        <v>44.93</v>
+      </c>
+      <c r="D118">
+        <v>90.3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A119" s="5">
+        <f t="shared" si="0"/>
+        <v>43810</v>
+      </c>
+      <c r="B119">
+        <v>75.540000000000006</v>
+      </c>
+      <c r="C119">
+        <v>44.41</v>
+      </c>
+      <c r="D119">
+        <v>90.11</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A120" s="5">
+        <f t="shared" si="0"/>
+        <v>43817</v>
+      </c>
+      <c r="B120">
+        <v>75.260000000000005</v>
+      </c>
+      <c r="C120">
+        <v>44.06</v>
+      </c>
+      <c r="D120">
+        <v>90.27</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A121" s="5">
+        <f t="shared" si="0"/>
+        <v>43824</v>
+      </c>
+      <c r="C121">
+        <v>44.01</v>
+      </c>
+      <c r="D121">
+        <v>90.12</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A122" s="5">
+        <f t="shared" si="0"/>
+        <v>43831</v>
+      </c>
+      <c r="B122">
+        <v>75.53</v>
+      </c>
+      <c r="C122">
+        <v>46.43</v>
+      </c>
+      <c r="D122">
+        <v>89.12</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A123" s="5"/>
     </row>
-    <row r="124" spans="1:1">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A124" s="5"/>
     </row>
-    <row r="125" spans="1:1">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A125" s="5"/>
     </row>
-    <row r="126" spans="1:1">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A126" s="5"/>
     </row>
-    <row r="127" spans="1:1">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A127" s="5"/>
     </row>
-    <row r="128" spans="1:1">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A128" s="5"/>
     </row>
-    <row r="129" spans="1:1">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A129" s="5"/>
     </row>
-    <row r="130" spans="1:1">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A130" s="5"/>
     </row>
-    <row r="131" spans="1:1">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A131" s="5"/>
     </row>
-    <row r="132" spans="1:1">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A132" s="5"/>
     </row>
-    <row r="133" spans="1:1">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A133" s="5"/>
     </row>
-    <row r="134" spans="1:1">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A134" s="5"/>
     </row>
-    <row r="135" spans="1:1">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A135" s="5"/>
     </row>
-    <row r="136" spans="1:1">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A136" s="5"/>
     </row>
-    <row r="137" spans="1:1">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A137" s="5"/>
     </row>
-    <row r="138" spans="1:1">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A138" s="5"/>
     </row>
-    <row r="139" spans="1:1">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A139" s="5"/>
     </row>
-    <row r="140" spans="1:1">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A140" s="5"/>
     </row>
-    <row r="141" spans="1:1">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A141" s="5"/>
     </row>
-    <row r="142" spans="1:1">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A142" s="5"/>
     </row>
-    <row r="143" spans="1:1">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A143" s="5"/>
     </row>
-    <row r="144" spans="1:1">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A144" s="5"/>
     </row>
-    <row r="145" spans="1:1">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A145" s="5"/>
     </row>
-    <row r="146" spans="1:1">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A146" s="5"/>
     </row>
-    <row r="147" spans="1:1">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A147" s="5"/>
     </row>
-    <row r="148" spans="1:1">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A148" s="5"/>
     </row>
-    <row r="149" spans="1:1">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A149" s="5"/>
     </row>
-    <row r="150" spans="1:1">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A150" s="5"/>
     </row>
-    <row r="151" spans="1:1">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A151" s="5"/>
     </row>
-    <row r="152" spans="1:1">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A152" s="5"/>
     </row>
-    <row r="153" spans="1:1">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A153" s="5"/>
     </row>
-    <row r="154" spans="1:1">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A154" s="5"/>
     </row>
-    <row r="155" spans="1:1">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A155" s="5"/>
     </row>
-    <row r="156" spans="1:1">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A156" s="5"/>
     </row>
-    <row r="157" spans="1:1">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A157" s="5"/>
     </row>
-    <row r="158" spans="1:1">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A158" s="5"/>
     </row>
-    <row r="159" spans="1:1">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A159" s="5"/>
     </row>
-    <row r="160" spans="1:1">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A160" s="5"/>
     </row>
-    <row r="161" spans="1:1">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A161" s="5"/>
     </row>
-    <row r="162" spans="1:1">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A162" s="5"/>
     </row>
-    <row r="163" spans="1:1">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A163" s="5"/>
     </row>
-    <row r="164" spans="1:1">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A164" s="5"/>
     </row>
-    <row r="165" spans="1:1">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A165" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B23" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="11.375" style="1" customWidth="1"/>
     <col min="2" max="3" width="18.375" style="2" customWidth="1"/>
     <col min="4" max="5" width="22.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2710,338 +2218,337 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>42887</v>
       </c>
       <c r="B2" s="3">
-        <v>-0.002</v>
+        <v>-2E-3</v>
       </c>
       <c r="C2" s="2">
-        <v>-0.032</v>
+        <v>-3.2000000000000001E-2</v>
       </c>
       <c r="D2" s="2">
-        <v>-0.005</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="E2" s="2">
-        <v>-0.024</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-2.4E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>42917</v>
       </c>
       <c r="B3" s="2">
-        <v>-0.007</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="C3" s="2">
-        <v>-0.048</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="D3" s="2">
-        <v>-0.009</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E3" s="2">
-        <v>-0.042</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-4.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>42948</v>
       </c>
       <c r="B4" s="2">
-        <v>-0.005</v>
+        <v>-5.0000000000000001E-3</v>
       </c>
       <c r="C4" s="2">
-        <v>-0.056</v>
+        <v>-5.6000000000000001E-2</v>
       </c>
       <c r="D4" s="2">
-        <v>-0.009</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="E4" s="2">
-        <v>-0.047</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-4.7E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>42979</v>
       </c>
       <c r="B5" s="2">
-        <v>-0.002</v>
+        <v>-2E-3</v>
       </c>
       <c r="C5" s="2">
-        <v>-0.061</v>
+        <v>-6.0999999999999999E-2</v>
       </c>
       <c r="D5" s="2">
-        <v>-0.007</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="E5" s="2">
         <v>-0.05</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>43009</v>
       </c>
       <c r="B6" s="2">
-        <v>-0.002</v>
+        <v>-2E-3</v>
       </c>
       <c r="C6" s="2">
-        <v>-0.066</v>
+        <v>-6.6000000000000003E-2</v>
       </c>
       <c r="D6" s="2">
-        <v>-0.003</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E6" s="2">
-        <v>-0.053</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>-5.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>43040</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>43070</v>
       </c>
       <c r="B8" s="2">
-        <v>-0.021</v>
+        <v>-2.1000000000000001E-2</v>
       </c>
       <c r="C8" s="2">
-        <v>-0.068</v>
+        <v>-6.8000000000000005E-2</v>
       </c>
       <c r="D8" s="2">
-        <v>-0.012</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="E8" s="2">
-        <v>-0.064</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-6.4000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>43101</v>
       </c>
-      <c r="B9" s="2"/>
       <c r="C9" s="2">
-        <v>-0.001</v>
+        <v>-1E-3</v>
       </c>
       <c r="E9" s="2">
-        <v>-0.012</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-1.2E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>43132</v>
       </c>
       <c r="B10" s="2">
-        <v>-0.009</v>
+        <v>-8.9999999999999993E-3</v>
       </c>
       <c r="C10" s="2">
-        <v>-0.008</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="D10" s="2">
         <v>0</v>
       </c>
       <c r="E10" s="2">
-        <v>-0.008</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>43160</v>
       </c>
       <c r="B11" s="2">
-        <v>0.014</v>
+        <v>1.4E-2</v>
       </c>
       <c r="C11" s="2">
-        <v>-0.003</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="D11" s="2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="E11" s="2">
-        <v>-0.008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-8.0000000000000002E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>43191</v>
       </c>
       <c r="B12" s="2">
-        <v>-0.008</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="C12" s="2">
-        <v>-0.015</v>
+        <v>-1.4999999999999999E-2</v>
       </c>
       <c r="D12" s="2">
-        <v>-0.014</v>
+        <v>-1.4E-2</v>
       </c>
       <c r="E12" s="2">
-        <v>-0.021</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>43221</v>
       </c>
       <c r="B13" s="2">
-        <v>-0.019</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="C13" s="2">
         <v>-0.02</v>
       </c>
       <c r="D13" s="2">
-        <v>-0.025</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E13" s="2">
-        <v>-0.039</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-3.9E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>43252</v>
       </c>
       <c r="B14" s="2">
-        <v>-0.012</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>-0.018</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D14" s="2">
-        <v>-0.013</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E14" s="2">
-        <v>-0.029</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-2.9000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>43282</v>
       </c>
       <c r="B15" s="2">
-        <v>-0.008</v>
+        <v>-8.0000000000000002E-3</v>
       </c>
       <c r="C15" s="2">
         <v>-0.02</v>
       </c>
       <c r="D15" s="2">
-        <v>-0.019</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="E15" s="2">
         <v>-0.04</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>43313</v>
       </c>
       <c r="B16" s="2">
-        <v>-0.003</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="C16" s="2">
-        <v>-0.024</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="D16" s="2">
-        <v>-0.011</v>
+        <v>-1.0999999999999999E-2</v>
       </c>
       <c r="E16" s="2">
-        <v>-0.048</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>43344</v>
       </c>
       <c r="B17" s="2">
-        <v>0.008</v>
+        <v>8.0000000000000002E-3</v>
       </c>
       <c r="C17" s="2">
-        <v>-0.018</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D17" s="2">
-        <v>-0.003</v>
+        <v>-3.0000000000000001E-3</v>
       </c>
       <c r="E17" s="2">
-        <v>-0.048</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
+        <v>-4.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>43374</v>
       </c>
       <c r="B18" s="2">
-        <v>0.001</v>
+        <v>1E-3</v>
       </c>
       <c r="C18" s="2">
-        <v>-0.018</v>
+        <v>-1.7999999999999999E-2</v>
       </c>
       <c r="D18" s="2">
-        <v>-0.012</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="E18" s="2">
-        <v>-0.059</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>-5.8999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>43405</v>
       </c>
       <c r="B19" s="2">
-        <v>-0.007</v>
+        <v>-7.0000000000000001E-3</v>
       </c>
       <c r="C19" s="2">
-        <v>-0.029</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="D19" s="2">
-        <v>-0.013</v>
+        <v>-1.2999999999999999E-2</v>
       </c>
       <c r="E19" s="2">
-        <v>-0.069</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-6.9000000000000006E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>43435</v>
       </c>
       <c r="B20" s="2">
-        <v>-0.037</v>
+        <v>-3.6999999999999998E-2</v>
       </c>
       <c r="C20" s="2">
-        <v>-0.048</v>
+        <v>-4.8000000000000001E-2</v>
       </c>
       <c r="D20" s="2">
-        <v>-0.023</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="E20" s="2">
-        <v>-0.083</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-8.3000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>43466</v>
       </c>
       <c r="B21" s="2">
-        <v>-0.057</v>
+        <v>-5.7000000000000002E-2</v>
       </c>
       <c r="C21" s="2">
-        <v>-0.1262</v>
+        <v>-0.12620000000000001</v>
       </c>
       <c r="D21" s="2">
-        <v>-0.0356</v>
+        <v>-3.56E-2</v>
       </c>
       <c r="E21" s="2">
-        <v>-0.1475</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.14749999999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>43497</v>
       </c>
       <c r="B22" s="2">
-        <v>-0.054</v>
+        <v>-5.3999999999999999E-2</v>
       </c>
       <c r="C22" s="2">
-        <v>-0.166</v>
+        <v>-0.16600000000000001</v>
       </c>
       <c r="D22" s="2">
         <v>-0.05</v>
@@ -3050,97 +2557,97 @@
         <v>-0.191</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>43525</v>
       </c>
       <c r="B23" s="2">
-        <v>-0.012</v>
+        <v>-1.2E-2</v>
       </c>
       <c r="C23" s="2">
         <v>-0.188</v>
       </c>
       <c r="D23" s="2">
-        <v>-0.023</v>
+        <v>-2.3E-2</v>
       </c>
       <c r="E23" s="2">
         <v>-0.21</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>43556</v>
       </c>
       <c r="B24" s="2">
-        <v>-0.029</v>
+        <v>-2.9000000000000001E-2</v>
       </c>
       <c r="C24" s="2">
-        <v>-0.208</v>
+        <v>-0.20799999999999999</v>
       </c>
       <c r="D24" s="2">
-        <v>-0.025</v>
+        <v>-2.5000000000000001E-2</v>
       </c>
       <c r="E24" s="2">
         <v>-0.223</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>43586</v>
       </c>
       <c r="B25" s="2">
-        <v>-0.042</v>
+        <v>-4.2000000000000003E-2</v>
       </c>
       <c r="C25" s="2">
-        <v>-0.229</v>
+        <v>-0.22900000000000001</v>
       </c>
       <c r="D25" s="2">
-        <v>-0.041</v>
+        <v>-4.1000000000000002E-2</v>
       </c>
       <c r="E25" s="2">
-        <v>-0.239</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>-0.23899999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>43617</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>43647</v>
       </c>
       <c r="B27" s="2">
-        <v>-0.094</v>
+        <v>-9.4E-2</v>
       </c>
       <c r="C27" s="2">
-        <v>-0.322</v>
+        <v>-0.32200000000000001</v>
       </c>
       <c r="D27" s="2">
-        <v>-0.089</v>
+        <v>-8.8999999999999996E-2</v>
       </c>
       <c r="E27" s="2">
-        <v>-0.319</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
+        <v>-0.31900000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>43678</v>
       </c>
       <c r="B28" s="2">
-        <v>-0.098</v>
+        <v>-9.8000000000000004E-2</v>
       </c>
       <c r="C28" s="2">
-        <v>-0.387</v>
+        <v>-0.38700000000000001</v>
       </c>
       <c r="D28" s="2">
-        <v>-0.091</v>
+        <v>-9.0999999999999998E-2</v>
       </c>
       <c r="E28" s="2">
         <v>-0.374</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>43709</v>
       </c>
@@ -3148,24 +2655,41 @@
         <v>-0.03</v>
       </c>
       <c r="C29" s="2">
-        <v>-0.411</v>
+        <v>-0.41099999999999998</v>
       </c>
       <c r="D29" s="4">
         <v>-2.8</v>
       </c>
       <c r="E29" s="2">
-        <v>-0.389</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>-0.38900000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>43739</v>
       </c>
+      <c r="B30" s="2">
+        <v>-6.0000000000000001E-3</v>
+      </c>
+      <c r="C30" s="2">
+        <v>-0.41399999999999998</v>
+      </c>
+      <c r="D30" s="2">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="E30" s="2">
+        <v>-0.378</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="1">
+        <v>43770</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>